--- a/800.개인프로젝트/02.SPA프로젝트/02.분석설계/요구사항 명세서.xlsx
+++ b/800.개인프로젝트/02.SPA프로젝트/02.분석설계/요구사항 명세서.xlsx
@@ -114,10 +114,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>이메일로 찾기 가능</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디를 알고 있을 때, 이메일로 찾기 가능(초기화메일전송)</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -152,6 +148,10 @@
   </si>
   <si>
     <t>https://www.nextree.co.kr/p4327/</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름과 이메일로 찾기 가능</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +163,7 @@
     <numFmt numFmtId="176" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0.00_);[Red]\(&quot;₩&quot;#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="[&lt;=9999999]###\-####;\(0##\)\ ###\-####"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -295,65 +295,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="9" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -369,6 +369,19 @@
     <cellStyle name="하이퍼링크" xfId="9" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -397,19 +410,6 @@
         <name val="맑은 고딕"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -440,7 +440,7 @@
         <name val="맑은 고딕"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -649,8 +649,8 @@
     <tableColumn id="1" name="no" dataDxfId="4" dataCellStyle="날짜"/>
     <tableColumn id="8" name="요구사항명" dataDxfId="3" dataCellStyle="날짜"/>
     <tableColumn id="2" name="요구사항상세" dataDxfId="2" dataCellStyle="표준"/>
-    <tableColumn id="6" name="비고" dataDxfId="0"/>
-    <tableColumn id="4" name="중요도" dataDxfId="1" dataCellStyle="통화"/>
+    <tableColumn id="6" name="비고" dataDxfId="1"/>
+    <tableColumn id="4" name="중요도" dataDxfId="0" dataCellStyle="통화"/>
   </tableColumns>
   <tableStyleInfo name="거래 명세서" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -954,241 +954,241 @@
   </sheetPr>
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="19.875" style="16" customWidth="1"/>
-    <col min="4" max="4" width="89.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="73.125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="89.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="73.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="6" customWidth="1"/>
     <col min="7" max="7" width="2.625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="30" customHeight="1">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6">
+      <c r="F1" s="3">
         <f ca="1">TODAY()</f>
-        <v>45225</v>
+        <v>45231</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="15" customHeight="1">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="4">
         <f ca="1">TODAY()+30</f>
-        <v>45255</v>
+        <v>45261</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="15" customHeight="1">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:6" ht="15" customHeight="1">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
     </row>
     <row r="5" spans="2:6" ht="18" customHeight="1">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="2:6" ht="18" customHeight="1">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6" ht="30" customHeight="1">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1">
-      <c r="B8" s="17">
+      <c r="B8" s="14">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="2:6" ht="82.5">
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>2</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1">
+      <c r="B10" s="14">
+        <v>3</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1">
-      <c r="B10" s="17">
-        <v>3</v>
-      </c>
-      <c r="C10" s="15" t="s">
+      <c r="F10" s="11"/>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1">
+      <c r="B11" s="14">
+        <v>4</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11"/>
+    </row>
+    <row r="12" spans="2:6" ht="49.5">
+      <c r="B12" s="14">
+        <v>5</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1">
+      <c r="B13" s="14">
+        <v>6</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="14" spans="2:6" ht="49.5">
+      <c r="B14" s="14">
+        <v>7</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="11"/>
+    </row>
+    <row r="15" spans="2:6" ht="49.5">
+      <c r="B15" s="14">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="2:6" ht="66">
+      <c r="B16" s="14">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="2:6" ht="30" customHeight="1">
+      <c r="B17" s="14">
+        <v>10</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6" ht="30" customHeight="1">
+      <c r="B18" s="14">
+        <v>11</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6" ht="30" customHeight="1">
+      <c r="B19" s="14">
         <v>12</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1">
-      <c r="B11" s="17">
-        <v>4</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="C19" s="12"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6" ht="30" customHeight="1">
+      <c r="B20" s="14">
         <v>13</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="2:6" ht="49.5">
-      <c r="B12" s="17">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="C20" s="12"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6" ht="30" customHeight="1">
+      <c r="B21" s="14">
         <v>14</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1">
-      <c r="B13" s="17">
-        <v>6</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="2:6" ht="49.5">
-      <c r="B14" s="17">
-        <v>7</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="2:6" ht="49.5">
-      <c r="B15" s="17">
-        <v>8</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="2:6" ht="66">
-      <c r="B16" s="17">
-        <v>9</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1">
-      <c r="B17" s="17">
-        <v>10</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1">
-      <c r="B18" s="17">
-        <v>11</v>
-      </c>
-      <c r="C18" s="15"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1">
-      <c r="B19" s="17">
-        <v>12</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="2:6" ht="30" customHeight="1">
-      <c r="B20" s="17">
-        <v>13</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="2:6" ht="30" customHeight="1">
-      <c r="B21" s="17">
-        <v>14</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="F21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="F21" s="11"/>
     </row>
   </sheetData>
   <dataConsolidate/>
